--- a/testing/Test1.xlsx
+++ b/testing/Test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deserag\учеба\производственная практика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deserag\IdeaProjects\prakticks\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C74E1C5-35AE-43B2-853F-C22317109591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C828A347-5132-4D8F-9144-7212477018A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B9843B8-1D63-41AE-8C3D-ED81F556C0A7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Задача</t>
   </si>
@@ -39,9 +39,6 @@
     <t xml:space="preserve">Ответственный </t>
   </si>
   <si>
-    <t>день недели</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сегодня </t>
   </si>
   <si>
@@ -79,6 +76,42 @@
   </si>
   <si>
     <t>Тестирование парсера</t>
+  </si>
+  <si>
+    <t>фосфор</t>
+  </si>
+  <si>
+    <t>Копт</t>
+  </si>
+  <si>
+    <t>ФПЙ</t>
+  </si>
+  <si>
+    <t>ПРЕИУ</t>
+  </si>
+  <si>
+    <t>УКИВ</t>
+  </si>
+  <si>
+    <t>УКТФИ</t>
+  </si>
+  <si>
+    <t>Кымиы</t>
+  </si>
+  <si>
+    <t>циц</t>
+  </si>
+  <si>
+    <t>ыиыу</t>
+  </si>
+  <si>
+    <t>циы</t>
+  </si>
+  <si>
+    <t>ицыиы</t>
+  </si>
+  <si>
+    <t>Следующий Месяц</t>
   </si>
 </sst>
 </file>
@@ -124,13 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -445,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E0BCC7-0981-4DA1-865B-8587B5BF726C}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,110 +493,165 @@
     <col min="6" max="6" width="36" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" customWidth="1"/>
     <col min="8" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
